--- a/EZSpreadsheet.Tests/ExpectedFiles/ShouldSetFontToCell.xlsx
+++ b/EZSpreadsheet.Tests/ExpectedFiles/ShouldSetFontToCell.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="R1650553dae9b455b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="Raeb83291a72147a3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,12 @@
   <x:si>
     <x:t>Text1</x:t>
   </x:si>
-  <x:si>
-    <x:t>Text2</x:t>
-  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:sz val="11"/>
       <x:color indexed="0"/>
@@ -30,6 +27,11 @@
       <x:sz val="11"/>
       <x:color indexed="0"/>
       <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color indexed="0"/>
+      <x:name val="Century"/>
     </x:font>
   </x:fonts>
   <x:fills>
@@ -42,15 +44,24 @@
   </x:fills>
   <x:borders count="1">
     <x:border>
-      <x:left style="none"/>
-      <x:right style="none"/>
-      <x:top style="none"/>
-      <x:bottom style="none"/>
+      <x:left style="none">
+        <x:color indexed="0"/>
+      </x:left>
+      <x:right style="none">
+        <x:color indexed="0"/>
+      </x:right>
+      <x:top style="none">
+        <x:color indexed="0"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color indexed="0"/>
+      </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -64,8 +75,13 @@
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+      <x:c r="A2" s="0" t="n">
+        <x:v>12345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" s="2" t="n">
+        <x:v>123.45</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/EZSpreadsheet.Tests/ExpectedFiles/ShouldSetFontToCell.xlsx
+++ b/EZSpreadsheet.Tests/ExpectedFiles/ShouldSetFontToCell.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="Raeb83291a72147a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" r:id="Rd8415991acd54d22"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -20,17 +20,17 @@
   <x:fonts count="3">
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="0"/>
+      <x:color rgb="000000"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="0"/>
+      <x:color rgb="000000"/>
       <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="0"/>
+      <x:color rgb="000000"/>
       <x:name val="Century"/>
     </x:font>
   </x:fonts>
@@ -45,16 +45,16 @@
   <x:borders count="1">
     <x:border>
       <x:left style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:left>
       <x:right style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:right>
       <x:top style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:top>
       <x:bottom style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
